--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56611.46736585856</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56611.46736585856</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960424231.3249159</v>
+        <v>40766100.2124446</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9237.768191269632</v>
+        <v>1071449.815730321</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16662.63655817521</v>
+        <v>1858560.465938192</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24087.01760167325</v>
+        <v>2645671.116146065</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31533.251090704</v>
+        <v>3432791.03158472</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38979.39717189717</v>
+        <v>4219901.681792593</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46425.74757195427</v>
+        <v>5007012.332000464</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53871.78220649439</v>
+        <v>5794122.982208333</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61318.13260655149</v>
+        <v>6581233.632416201</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68764.37155995553</v>
+        <v>7368344.28262407</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76210.61051335956</v>
+        <v>8155454.932831938</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83656.8494667636</v>
+        <v>8942565.583039813</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91103.08842016762</v>
+        <v>9729676.23324769</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98549.32737357165</v>
+        <v>10516786.88345557</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105995.5663269756</v>
+        <v>11303897.53366344</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113441.6009615157</v>
+        <v>12091008.18387132</v>
       </c>
     </row>
   </sheetData>
